--- a/biology/Zoologie/Amniota/Amniota.xlsx
+++ b/biology/Zoologie/Amniota/Amniota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amniotes
-Les amniotes (Amniota) sont un clade de tétrapodes qui ont la particularité de disposer d'un sac amniotique, protégeant l'embryon ou le fœtus. Il y a environ 360 millions d'années, les ancêtres de tous les vertébrés terrestres ont commencé à sortir de l'eau. Cette évolution a été facilitée par deux innovations physiologiques majeures : d'une part une forte kératinisation de la peau qui se recouvre d'écailles cornées (ou de dérivés d'écailles : plumes, poils) qui favorise la lutte contre la dessiccation, et d'autre part l'apparition de l'œuf cléidoïque (pour « clos », plus connu sous le nom d'œuf amniotique, d'après le nom de la membrane, l'amnios, qui protège des chocs et de la dessiccation l'embryon se développant dans un milieu aqueux indispensable, le liquide amniotique, tandis que le petit se développe dans une coquille ou dans l'utérus)[5].
-Le clade Amniota, aujourd'hui bien soutenu[6], regroupe les sauropsides (reptiles et oiseaux) et les synapsides (mammifères et lignées apparentées disparues) ; parmi les tétrapodes actuels, les amniotes, issus des amphibiens reptiliomorphes, constituent cladistiquement le groupe-frère des lissamphibiens.
+Les amniotes (Amniota) sont un clade de tétrapodes qui ont la particularité de disposer d'un sac amniotique, protégeant l'embryon ou le fœtus. Il y a environ 360 millions d'années, les ancêtres de tous les vertébrés terrestres ont commencé à sortir de l'eau. Cette évolution a été facilitée par deux innovations physiologiques majeures : d'une part une forte kératinisation de la peau qui se recouvre d'écailles cornées (ou de dérivés d'écailles : plumes, poils) qui favorise la lutte contre la dessiccation, et d'autre part l'apparition de l'œuf cléidoïque (pour « clos », plus connu sous le nom d'œuf amniotique, d'après le nom de la membrane, l'amnios, qui protège des chocs et de la dessiccation l'embryon se développant dans un milieu aqueux indispensable, le liquide amniotique, tandis que le petit se développe dans une coquille ou dans l'utérus).
+Le clade Amniota, aujourd'hui bien soutenu, regroupe les sauropsides (reptiles et oiseaux) et les synapsides (mammifères et lignées apparentées disparues) ; parmi les tétrapodes actuels, les amniotes, issus des amphibiens reptiliomorphes, constituent cladistiquement le groupe-frère des lissamphibiens.
 </t>
         </is>
       </c>
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amniotes anciens
-Les amniotes sont un groupe d'environ 20 600 espèces de tétrapodes (sur 24 800) ayant acquis la capacité de produire des œufs amniotiques à coquille, offrant à l'embryon la possibilité de se développer dans un milieu aqueux protégé de la dessiccation, ce qui leur a permis de s'émanciper du milieu aquatique pour leur appariement et leur ponte.
+          <t>Amniotes anciens</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les amniotes sont un groupe d'environ 20 600 espèces de tétrapodes (sur 24 800) ayant acquis la capacité de produire des œufs amniotiques à coquille, offrant à l'embryon la possibilité de se développer dans un milieu aqueux protégé de la dessiccation, ce qui leur a permis de s'émanciper du milieu aquatique pour leur appariement et leur ponte.
 À partir de cette capacité fonctionnelle, les groupes d'amniotes se sont différenciés, caractéristiques d'une radiation adaptative occupant de nombreuses niches écologiques. Parmi les plus spécifiques, on peut citer :
 Les tortues ont diversifié les modalités de protection des plaques osseuses engendrées par la peau (suivant la même logique fonctionnelle que les mollusques, environ 200 millions d'années auparavant).
 Les squamates ont conservé la capacité de se reproduire hors de l'eau, mais parmi eux les serpents et quelques autres groupes ont progressivement évolué vers un stade vermiforme, abandonnant le déplacement sur les membres.
@@ -551,10 +568,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis la divergence entre les Tétrapodes souches aquatiques et les tétrapodes amniotes, reptiliomorphes, ces derniers connaissent une radiation évolutive. Leur « sortie des eaux » s'accompagne de la colonisation de nombreuses niches écologiques de la biosphère terrestre, ce qui leur permet une radiation évolutive, les possibilités de diversification étant telles qu'une grande diversité de plans d'organisation et de taille ont pu émerger[7]. Cette diversité se manifeste particulièrement dans la région craniofaciale où se concentrent des organes sensoriels en lien notamment avec l'alimentation et des transitions vers des comportements de prédation[8].
-Les amniotes possèdent des griffes, étuis cornés couvrant les phalanges terminales des doigts (formant notamment des sabots chez les ongulés, et des ongles chez les primates), ce qui les distingue de l'autre grand groupe actuel des vertébrés tétrapodes, les lissamphibiens (seul groupe survivant de la classe des amphibiens) dont les quatre membre locomoteurs (correspondant aux deux paires de membres chiridiens) sont munis de doigts nus[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la divergence entre les Tétrapodes souches aquatiques et les tétrapodes amniotes, reptiliomorphes, ces derniers connaissent une radiation évolutive. Leur « sortie des eaux » s'accompagne de la colonisation de nombreuses niches écologiques de la biosphère terrestre, ce qui leur permet une radiation évolutive, les possibilités de diversification étant telles qu'une grande diversité de plans d'organisation et de taille ont pu émerger. Cette diversité se manifeste particulièrement dans la région craniofaciale où se concentrent des organes sensoriels en lien notamment avec l'alimentation et des transitions vers des comportements de prédation.
+Les amniotes possèdent des griffes, étuis cornés couvrant les phalanges terminales des doigts (formant notamment des sabots chez les ongulés, et des ongles chez les primates), ce qui les distingue de l'autre grand groupe actuel des vertébrés tétrapodes, les lissamphibiens (seul groupe survivant de la classe des amphibiens) dont les quatre membre locomoteurs (correspondant aux deux paires de membres chiridiens) sont munis de doigts nus.
 </t>
         </is>
       </c>
@@ -583,10 +602,12 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme ici présenté illustre la phylogénie (les rapports de parenté) des amniotes. Il montre une version simplifiée des rapports de parenté établis par Laurin et Reisz (1995)[10]. Le cladogramme recouvre le groupe tel qu'établi selon la définition du paléontologue américain Jacques Gauthier.
-L'inclusion des Testudines (les tortues) au sein des Parareptilia n'est plus soutenue depuis que des recherches phylogénétiques plus récentes ont eu lieu. Toutes les études de phylogénétique moléculaire les situent au sein des diapsides[11],[12], mais à l'intérieur de ce groupe, la discussion reste ouverte entre les chercheurs qui les classent parmi archosaures[13], ceux qui en font le groupe-frère des archosaures[14],[15],[16],[17] et ceux qui depuis l'analyse dirigée en 2012 par Lyson et al., les considèrent comme le groupe-frère des lépidosaures[18].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ici présenté illustre la phylogénie (les rapports de parenté) des amniotes. Il montre une version simplifiée des rapports de parenté établis par Laurin et Reisz (1995). Le cladogramme recouvre le groupe tel qu'établi selon la définition du paléontologue américain Jacques Gauthier.
+L'inclusion des Testudines (les tortues) au sein des Parareptilia n'est plus soutenue depuis que des recherches phylogénétiques plus récentes ont eu lieu. Toutes les études de phylogénétique moléculaire les situent au sein des diapsides mais à l'intérieur de ce groupe, la discussion reste ouverte entre les chercheurs qui les classent parmi archosaures, ceux qui en font le groupe-frère des archosaures et ceux qui depuis l'analyse dirigée en 2012 par Lyson et al., les considèrent comme le groupe-frère des lépidosaures.
 </t>
         </is>
       </c>
